--- a/ZohoLogs_Sample.xlsx
+++ b/ZohoLogs_Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LIVE" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
-  <si>
-    <t xml:space="preserve">url</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t xml:space="preserve">user type</t>
   </si>
@@ -34,9 +31,6 @@
   </si>
   <si>
     <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zoho.com/people/</t>
   </si>
   <si>
     <t xml:space="preserve">USR</t>
@@ -165,7 +159,7 @@
     <numFmt numFmtId="165" formatCode="DD\-MMM\-YYYY"/>
     <numFmt numFmtId="166" formatCode="MM:SS"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -199,14 +193,6 @@
       <sz val="9"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -272,7 +258,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,11 +282,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -317,7 +300,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,35 +316,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -387,7 +365,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -431,62 +409,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="4.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="30.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="4.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="3"/>
+      <c r="L1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B2" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.zoho.com/people/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -512,412 +481,412 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="6.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="19.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="37.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="39.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="11.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="7" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="6.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="19.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="37.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="39.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="6" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="8" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="9" t="n">
+        <v>0.000347222222222222</v>
+      </c>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F4" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9" t="n">
         <v>0.000347222222222222</v>
       </c>
-      <c r="G3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0.000347222222222222</v>
+      </c>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F16" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="10" t="n">
+      <c r="F17" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="9" t="n">
         <v>0.000347222222222222</v>
       </c>
-      <c r="G14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="G19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="10" t="n">
-        <v>0.000347222222222222</v>
-      </c>
-      <c r="G15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="F20" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="10" t="n">
-        <v>0.000347222222222222</v>
-      </c>
-      <c r="G19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="F21" s="9" t="n">
+        <v>0.000173611111111111</v>
+      </c>
+      <c r="G21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="10" t="n">
-        <v>0.000173611111111111</v>
-      </c>
-      <c r="G21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="F22" s="9" t="n">
+        <v>0.000694444444444444</v>
+      </c>
+      <c r="G22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="8" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>0.000694444444444444</v>
-      </c>
-      <c r="G22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9" t="n">
-        <v>44028</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="10" t="n">
+      <c r="F23" s="9" t="n">
         <v>0.00104166666666667</v>
       </c>
       <c r="G23" s="0"/>
@@ -1080,46 +1049,46 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="12.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="11" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="12.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="10" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="12"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
